--- a/iselUssSyncV2/OutputWSL/20220517_1316_D60L474W90Q10.1U0.20H65G2_S_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1316_D60L474W90Q10.1U0.20H65G2_S_DATA.xlsx
@@ -351,14 +351,16 @@
         <v>0.064868136378153529</v>
       </c>
       <c r="G2" s="0">
-        <v>0.069858804780876485</v>
-      </c>
-      <c r="H2" s="0"/>
+        <v>0.068359466894327384</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.0062954581673306505</v>
+      </c>
       <c r="I2" s="0">
         <v>0.038091034493772075</v>
       </c>
       <c r="J2" s="0">
-        <v>0.033876414342629481</v>
+        <v>0.031222788844621513</v>
       </c>
       <c r="K2" s="0">
         <v>0.002</v>
@@ -406,7 +408,7 @@
         <v>0.24706580834249944</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.40857125371997066</v>
+        <v>0.46174948889360451</v>
       </c>
       <c r="AA2" s="0">
         <v>0.22287183514102574</v>
